--- a/data/xlsx/02052019.xlsx
+++ b/data/xlsx/02052019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\tiffany\susa\web-dev\police-logs\cleaned\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E48279-B4A5-4F9C-88DA-B4721E1F2FCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30DAA7BA-0697-4E89-B466-3171CD8928CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{92905430-FA47-4B61-B9D4-E29D984927A7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{18E8BA02-448A-468A-BF7D-C6E907D15E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="02052019" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -410,10 +410,11 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -731,11 +732,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8EB261-CC6D-4BF5-9B73-DA8AD46528DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A9A101-13B7-4955-9BEA-DABA4D65FC8E}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,10 +784,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="6">
-        <v>0</v>
+        <v>37.883536999999997</v>
       </c>
       <c r="G2" s="6">
-        <v>0</v>
+        <v>-122.302469</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>12</v>
@@ -810,10 +811,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="6">
-        <v>0</v>
+        <v>37.865715999999999</v>
       </c>
       <c r="G3" s="6">
-        <v>0</v>
+        <v>-122.259823</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>12</v>
@@ -971,10 +972,10 @@
       <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="8">
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -1053,10 +1054,10 @@
         <v>37</v>
       </c>
       <c r="F12" s="6">
-        <v>0</v>
+        <v>37.867638999999997</v>
       </c>
       <c r="G12" s="6">
-        <v>0</v>
+        <v>-122.258082</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>12</v>
@@ -1161,10 +1162,10 @@
         <v>52</v>
       </c>
       <c r="F16" s="6">
-        <v>0</v>
+        <v>37.773947</v>
       </c>
       <c r="G16" s="6">
-        <v>0</v>
+        <v>-122.40852700000001</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>12</v>
@@ -1215,10 +1216,10 @@
         <v>56</v>
       </c>
       <c r="F18" s="6">
-        <v>0</v>
+        <v>37.877206999999999</v>
       </c>
       <c r="G18" s="6">
-        <v>0</v>
+        <v>-122.25869299999999</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>12</v>
@@ -1271,7 +1272,7 @@
       <c r="F20" s="7">
         <v>37.872186999999997</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="9">
         <v>-122.266204</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -1550,7 +1551,7 @@
       <c r="J30" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
